--- a/guide.xlsx
+++ b/guide.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\github\utilities\KinhPhat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\until\KinhNikaya\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DF5711-76CB-4803-B7A1-D31148BFFEBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16620" windowHeight="6375"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Open database</t>
   </si>
@@ -80,17 +81,72 @@
   <si>
     <t>end</t>
   </si>
+  <si>
+    <t>find title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>search setting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exactly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>less</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>more</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>font setting</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -108,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -116,13 +172,158 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -157,7 +358,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Picture 51"/>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -212,7 +419,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -267,7 +480,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -305,7 +524,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -343,7 +568,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -381,7 +612,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 6"/>
+        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -455,7 +692,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rounded Rectangular Callout 7"/>
+        <xdr:cNvPr id="8" name="Rounded Rectangular Callout 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -517,7 +760,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rounded Rectangular Callout 8"/>
+        <xdr:cNvPr id="9" name="Rounded Rectangular Callout 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -579,7 +828,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rounded Rectangular Callout 9"/>
+        <xdr:cNvPr id="10" name="Rounded Rectangular Callout 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -641,7 +896,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -696,7 +957,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -751,7 +1018,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
+        <xdr:cNvPr id="15" name="Rounded Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -811,7 +1084,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
+        <xdr:cNvPr id="16" name="Rounded Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -871,7 +1150,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rounded Rectangular Callout 16"/>
+        <xdr:cNvPr id="17" name="Rounded Rectangular Callout 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -933,7 +1218,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rounded Rectangular Callout 17"/>
+        <xdr:cNvPr id="18" name="Rounded Rectangular Callout 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -995,7 +1286,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
+        <xdr:cNvPr id="19" name="Rounded Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1055,7 +1352,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rounded Rectangular Callout 19"/>
+        <xdr:cNvPr id="20" name="Rounded Rectangular Callout 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1117,7 +1420,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="3"/>
           <a:endCxn id="16" idx="1"/>
@@ -1170,7 +1479,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rounded Rectangle 22"/>
+        <xdr:cNvPr id="23" name="Rounded Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1230,7 +1545,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="23" idx="3"/>
           <a:endCxn id="19" idx="1"/>
@@ -1283,7 +1604,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1321,7 +1648,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Rounded Rectangular Callout 27"/>
+        <xdr:cNvPr id="28" name="Rounded Rectangular Callout 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1383,7 +1716,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Rounded Rectangle 28"/>
+        <xdr:cNvPr id="29" name="Rounded Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1443,7 +1782,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Rounded Rectangle 29"/>
+        <xdr:cNvPr id="30" name="Rounded Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1503,7 +1848,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Rounded Rectangular Callout 30"/>
+        <xdr:cNvPr id="31" name="Rounded Rectangular Callout 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1565,7 +1916,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="29" idx="3"/>
           <a:endCxn id="30" idx="1"/>
@@ -1618,7 +1975,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 34"/>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1656,7 +2019,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Rounded Rectangular Callout 35"/>
+        <xdr:cNvPr id="36" name="Rounded Rectangular Callout 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1718,7 +2087,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Rounded Rectangle 36"/>
+        <xdr:cNvPr id="37" name="Rounded Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1778,7 +2153,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Rounded Rectangle 37"/>
+        <xdr:cNvPr id="38" name="Rounded Rectangle 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1838,7 +2219,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="37" idx="3"/>
           <a:endCxn id="38" idx="1"/>
@@ -1891,7 +2278,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Rounded Rectangular Callout 41"/>
+        <xdr:cNvPr id="42" name="Rounded Rectangular Callout 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1953,7 +2346,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Rounded Rectangular Callout 45"/>
+        <xdr:cNvPr id="46" name="Rounded Rectangular Callout 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2015,7 +2414,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Rounded Rectangle 46"/>
+        <xdr:cNvPr id="47" name="Rounded Rectangle 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2075,7 +2480,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Rounded Rectangle 48"/>
+        <xdr:cNvPr id="49" name="Rounded Rectangle 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2135,7 +2546,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Rounded Rectangular Callout 49"/>
+        <xdr:cNvPr id="50" name="Rounded Rectangular Callout 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2197,7 +2614,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="Straight Arrow Connector 52"/>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="47" idx="3"/>
           <a:endCxn id="49" idx="1"/>
@@ -2250,7 +2673,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Rounded Rectangle 57"/>
+        <xdr:cNvPr id="58" name="Rounded Rectangle 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2310,7 +2739,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Picture 58"/>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2365,7 +2800,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Rounded Rectangle 59"/>
+        <xdr:cNvPr id="60" name="Rounded Rectangle 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2425,7 +2866,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Rounded Rectangular Callout 56"/>
+        <xdr:cNvPr id="57" name="Rounded Rectangular Callout 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2487,7 +2934,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Rounded Rectangle 60"/>
+        <xdr:cNvPr id="61" name="Rounded Rectangle 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2547,7 +3000,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="Rounded Rectangular Callout 61"/>
+        <xdr:cNvPr id="62" name="Rounded Rectangular Callout 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2609,7 +3068,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Picture 62"/>
+        <xdr:cNvPr id="63" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2647,7 +3112,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Rounded Rectangle 63"/>
+        <xdr:cNvPr id="64" name="Rounded Rectangle 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2707,7 +3178,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Rounded Rectangular Callout 64"/>
+        <xdr:cNvPr id="65" name="Rounded Rectangular Callout 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2769,7 +3246,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Picture 65"/>
+        <xdr:cNvPr id="66" name="Picture 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2824,7 +3307,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Picture 66"/>
+        <xdr:cNvPr id="67" name="Picture 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2862,7 +3351,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="Rounded Rectangle 67"/>
+        <xdr:cNvPr id="68" name="Rounded Rectangle 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2922,7 +3417,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="Rounded Rectangular Callout 68"/>
+        <xdr:cNvPr id="69" name="Rounded Rectangular Callout 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2984,7 +3485,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Rounded Rectangle 69"/>
+        <xdr:cNvPr id="70" name="Rounded Rectangle 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3044,7 +3551,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="Rounded Rectangular Callout 70"/>
+        <xdr:cNvPr id="71" name="Rounded Rectangular Callout 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3106,7 +3619,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="Straight Arrow Connector 71"/>
+        <xdr:cNvPr id="72" name="Straight Arrow Connector 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="68" idx="3"/>
           <a:endCxn id="70" idx="1"/>
@@ -3159,7 +3678,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Picture 76"/>
+        <xdr:cNvPr id="77" name="Picture 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3214,7 +3739,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Picture 77"/>
+        <xdr:cNvPr id="78" name="Picture 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3502,22 +4033,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="1200" topLeftCell="A4" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <pane ySplit="1200" topLeftCell="A175" activePane="bottomLeft"/>
       <selection activeCell="A97" sqref="A97"/>
       <selection pane="bottomLeft" activeCell="O210" sqref="O210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3538,17 +4069,17 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -3569,47 +4100,47 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>3</v>
       </c>
@@ -3630,27 +4161,27 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B176" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B189" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
         <v>17</v>
       </c>
@@ -3670,7 +4201,439 @@
       <c r="O215" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912A4AB0-638F-40C7-838F-81765EF5F531}">
+  <dimension ref="B2:H51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="5"/>
+      <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="5"/>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="5"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="5"/>
+      <c r="C21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="5"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="5"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="5"/>
+      <c r="C38" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="5"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B44" s="5"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>